--- a/5. Evaluation/pamm/port_data_hist.xlsx
+++ b/5. Evaluation/pamm/port_data_hist.xlsx
@@ -67,7 +67,7 @@
     <t>Income and Prosperity</t>
   </si>
   <si>
-    <t>RomTrade Investments</t>
+    <t>AlexStarkov (006-RUR)</t>
   </si>
   <si>
     <t>Lucky Pound</t>
@@ -502,19 +502,19 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>0.5807142877940371</v>
+        <v>0.5587702574040422</v>
       </c>
       <c r="I2">
         <v>3.4494</v>
       </c>
       <c r="J2">
-        <v>166370.4445507138</v>
+        <v>167706.1178489838</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>573878.2114332323</v>
+        <v>578485.4829082849</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -531,7 +531,7 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -540,19 +540,19 @@
         <v>10</v>
       </c>
       <c r="H3">
-        <v>0.4192857122059629</v>
+        <v>0.4412297425959578</v>
       </c>
       <c r="I3">
-        <v>1.486</v>
+        <v>3.2369</v>
       </c>
       <c r="J3">
-        <v>278835.7654086198</v>
+        <v>141121.9864131748</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>414349.947397209</v>
+        <v>456797.7578208056</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -578,19 +578,19 @@
         <v>10</v>
       </c>
       <c r="H4">
-        <v>0.4001715805134215</v>
+        <v>0.4027449459293357</v>
       </c>
       <c r="I4">
         <v>3.8844</v>
       </c>
       <c r="J4">
-        <v>118303.0275714524</v>
+        <v>124716.0220577002</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>459536.2802985498</v>
+        <v>484446.9160809308</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -607,7 +607,7 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.4727</v>
+        <v>3.1941</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -654,19 +654,19 @@
         <v>10</v>
       </c>
       <c r="H6">
-        <v>0.5998284194865785</v>
+        <v>0.5972550540706643</v>
       </c>
       <c r="I6">
         <v>10.1314</v>
       </c>
       <c r="J6">
-        <v>67987.82350413364</v>
+        <v>70909.83385403591</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>688811.8350497795</v>
+        <v>718415.8907087793</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -692,19 +692,19 @@
         <v>10</v>
       </c>
       <c r="H7">
-        <v>0.3689612625728799</v>
+        <v>0.3714582152418746</v>
       </c>
       <c r="I7">
         <v>3.3985</v>
       </c>
       <c r="J7">
-        <v>118303.0275714524</v>
+        <v>124716.0220577002</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>402052.8392015811</v>
+        <v>423847.4009630943</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -721,7 +721,7 @@
         <v>12</v>
       </c>
       <c r="E8">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.4719</v>
+        <v>2.56</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -768,19 +768,19 @@
         <v>10</v>
       </c>
       <c r="H9">
-        <v>0.6310387374271202</v>
+        <v>0.6285417847581254</v>
       </c>
       <c r="I9">
         <v>10.1141</v>
       </c>
       <c r="J9">
-        <v>67987.82350413364</v>
+        <v>70909.83385403591</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>687635.6457031581</v>
+        <v>717189.1505831047</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -806,19 +806,19 @@
         <v>10</v>
       </c>
       <c r="H10">
-        <v>0.3362517412504922</v>
+        <v>0.3386461253964072</v>
       </c>
       <c r="I10">
         <v>3.3099</v>
       </c>
       <c r="J10">
-        <v>118303.0275714524</v>
+        <v>124716.0220577002</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>391571.1909587504</v>
+        <v>412797.5614087821</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -835,7 +835,7 @@
         <v>12</v>
       </c>
       <c r="E11">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.4373</v>
+        <v>2.6181</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -882,19 +882,19 @@
         <v>10</v>
       </c>
       <c r="H12">
-        <v>0.6637482587495078</v>
+        <v>0.6613538746035929</v>
       </c>
       <c r="I12">
         <v>11.3689</v>
       </c>
       <c r="J12">
-        <v>67987.82350413364</v>
+        <v>70909.83385403591</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>772946.7666361451</v>
+        <v>806166.810103149</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -920,19 +920,19 @@
         <v>10</v>
       </c>
       <c r="H13">
-        <v>0.3245331965795925</v>
+        <v>0.3268852307737987</v>
       </c>
       <c r="I13">
         <v>3.2266</v>
       </c>
       <c r="J13">
-        <v>118303.0275714524</v>
+        <v>124716.0220577002</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>381716.5487620484</v>
+        <v>402408.7167713756</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -949,7 +949,7 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.4434</v>
+        <v>3.2916</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>10</v>
       </c>
       <c r="H15">
-        <v>0.6754668034204074</v>
+        <v>0.6731147692262014</v>
       </c>
       <c r="I15">
         <v>11.6857</v>
       </c>
       <c r="J15">
-        <v>67987.82350413364</v>
+        <v>70909.83385403591</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>794485.3091222545</v>
+        <v>828631.0454681073</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1034,19 +1034,19 @@
         <v>10</v>
       </c>
       <c r="H16">
-        <v>0.2844379742559943</v>
+        <v>0.2866227266831342</v>
       </c>
       <c r="I16">
         <v>3.1469</v>
       </c>
       <c r="J16">
-        <v>118303.0275714524</v>
+        <v>124716.0220577002</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>372287.7974646037</v>
+        <v>392468.8498133769</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1063,7 +1063,7 @@
         <v>12</v>
       </c>
       <c r="E17">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.4222</v>
+        <v>2.249</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>10</v>
       </c>
       <c r="H18">
-        <v>0.7155620257440056</v>
+        <v>0.7133772733168658</v>
       </c>
       <c r="I18">
         <v>13.7755</v>
       </c>
       <c r="J18">
-        <v>67987.82350413364</v>
+        <v>70909.83385403591</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>936566.262681193</v>
+        <v>976818.4162562717</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1177,7 +1177,7 @@
         <v>12</v>
       </c>
       <c r="E20">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.398</v>
+        <v>2.521</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1224,19 +1224,19 @@
         <v>10</v>
       </c>
       <c r="H21">
-        <v>0.5055199059123024</v>
+        <v>0.5074347751625796</v>
       </c>
       <c r="I21">
         <v>14.2126</v>
       </c>
       <c r="J21">
-        <v>47007.67531624622</v>
+        <v>49368.49857047338</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>668101.286199681</v>
+        <v>701654.72278271</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1262,19 +1262,19 @@
         <v>10</v>
       </c>
       <c r="H22">
-        <v>0.4944800940876976</v>
+        <v>0.4925652248374203</v>
       </c>
       <c r="I22">
         <v>4.5811</v>
       </c>
       <c r="J22">
-        <v>142653.7154748683</v>
+        <v>148674.7447013595</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>653510.9359619191</v>
+        <v>681093.8729513983</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1329,7 +1329,7 @@
         <v>12</v>
       </c>
       <c r="E24">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.4134</v>
+        <v>2.6204</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>10</v>
       </c>
       <c r="H25">
-        <v>0.5030285930640551</v>
+        <v>0.5059574689351682</v>
       </c>
       <c r="I25">
         <v>14.2608</v>
       </c>
       <c r="J25">
-        <v>44749.74278497462</v>
+        <v>47104.45141366372</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>638167.1319079661</v>
+        <v>671747.1607199756</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1414,19 +1414,19 @@
         <v>10</v>
       </c>
       <c r="H26">
-        <v>0.4969714069359449</v>
+        <v>0.4940425310648316</v>
       </c>
       <c r="I26">
         <v>4.2128</v>
       </c>
       <c r="J26">
-        <v>149658.8216489205</v>
+        <v>155698.8211504379</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>630482.6838425723</v>
+        <v>655927.9937425648</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1481,7 +1481,7 @@
         <v>12</v>
       </c>
       <c r="E28">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>1.3831</v>
+        <v>1.2312</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1528,19 +1528,19 @@
         <v>10</v>
       </c>
       <c r="H29">
-        <v>0.4791989723130973</v>
+        <v>0.4808341962377869</v>
       </c>
       <c r="I29">
         <v>16.4652</v>
       </c>
       <c r="J29">
-        <v>42262.22818350539</v>
+        <v>44380.65275812989</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>695856.0394870528</v>
+        <v>730736.3237931601</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1566,19 +1566,19 @@
         <v>10</v>
       </c>
       <c r="H30">
-        <v>0.5208010276869028</v>
+        <v>0.519165803762213</v>
       </c>
       <c r="I30">
         <v>4.7841</v>
       </c>
       <c r="J30">
-        <v>158079.3372747828</v>
+        <v>164919.1847724558</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>756267.3574562883</v>
+        <v>788989.8718699059</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1633,7 +1633,7 @@
         <v>12</v>
       </c>
       <c r="E32">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
@@ -1645,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>1.3471</v>
+        <v>0.848</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1718,19 +1718,19 @@
         <v>10</v>
       </c>
       <c r="H34">
-        <v>0.3906142966667439</v>
+        <v>0.3676484951520985</v>
       </c>
       <c r="I34">
         <v>5.6227</v>
       </c>
       <c r="J34">
-        <v>130120.1265073163</v>
+        <v>128643.9077851855</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>731626.4353126874</v>
+        <v>723326.1003037627</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1756,19 +1756,19 @@
         <v>10</v>
       </c>
       <c r="H35">
-        <v>0.6093857033332561</v>
+        <v>0.6323515048479016</v>
       </c>
       <c r="I35">
         <v>141.7594</v>
       </c>
       <c r="J35">
-        <v>8051.589952392956</v>
+        <v>8776.230755093631</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>1141388.560697254</v>
+        <v>1244113.20610362</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1823,7 +1823,7 @@
         <v>12</v>
       </c>
       <c r="E37">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>1.3143</v>
+        <v>0.7262999999999999</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         <v>10</v>
       </c>
       <c r="H39">
-        <v>0.4403785102093761</v>
+        <v>0.416486542993803</v>
       </c>
       <c r="I39">
         <v>5.9912</v>
       </c>
       <c r="J39">
-        <v>130120.1265073163</v>
+        <v>128643.9077851855</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>779575.7019306335</v>
+        <v>770731.3803226035</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1946,19 +1946,19 @@
         <v>10</v>
       </c>
       <c r="H40">
-        <v>0.5596214897906239</v>
+        <v>0.5835134570061971</v>
       </c>
       <c r="I40">
         <v>123.0396</v>
       </c>
       <c r="J40">
-        <v>8051.589952392956</v>
+        <v>8776.230755093631</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>990664.4071064482</v>
+        <v>1079823.921614418</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2013,7 +2013,7 @@
         <v>12</v>
       </c>
       <c r="E42">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>1.3002</v>
+        <v>0.866</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2098,19 +2098,19 @@
         <v>10</v>
       </c>
       <c r="H44">
-        <v>0.390789531934062</v>
+        <v>0.3735847131861613</v>
       </c>
       <c r="I44">
         <v>6.2829</v>
       </c>
       <c r="J44">
-        <v>123906.8336534202</v>
+        <v>124081.9569103992</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
       <c r="L44">
-        <v>778494.2451610737</v>
+        <v>779594.527072347</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2136,19 +2136,19 @@
         <v>10</v>
       </c>
       <c r="H45">
-        <v>0.609210468065938</v>
+        <v>0.6264152868138387</v>
       </c>
       <c r="I45">
         <v>145.2708</v>
       </c>
       <c r="J45">
-        <v>8354.135475511222</v>
+        <v>8998.367043581402</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45">
-        <v>1213611.943835896</v>
+        <v>1307199.979114705</v>
       </c>
     </row>
   </sheetData>
